--- a/Auto-Eval-ASI1-ICS-r1 (1).xlsx
+++ b/Auto-Eval-ASI1-ICS-r1 (1).xlsx
@@ -883,7 +883,7 @@
   <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1007,7 +1007,7 @@
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>0.25</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="14"/>
@@ -1024,7 +1024,7 @@
         <v>0.25</v>
       </c>
       <c r="I4" s="13" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="14"/>
@@ -1032,7 +1032,7 @@
         <v>0.25</v>
       </c>
       <c r="M4" s="13" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="14"/>
@@ -1040,7 +1040,7 @@
         <v>0.25</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
@@ -1148,8 +1148,8 @@
       <c r="L7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>14</v>
+      <c r="M7" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N7" s="20" t="s">
         <v>14</v>
@@ -1203,8 +1203,8 @@
       <c r="L8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>14</v>
+      <c r="M8" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N8" s="20" t="s">
         <v>14</v>
@@ -1258,8 +1258,8 @@
       <c r="L9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>14</v>
+      <c r="M9" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N9" s="20" t="s">
         <v>14</v>
@@ -1313,8 +1313,8 @@
       <c r="L10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>14</v>
+      <c r="M10" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N10" s="20" t="s">
         <v>14</v>
@@ -1368,8 +1368,8 @@
       <c r="L11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="20" t="s">
-        <v>14</v>
+      <c r="M11" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="N11" s="20" t="s">
         <v>14</v>
@@ -1423,8 +1423,8 @@
       <c r="L12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>14</v>
+      <c r="M12" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N12" s="20" t="s">
         <v>14</v>
@@ -1478,8 +1478,8 @@
       <c r="L13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="20" t="s">
-        <v>14</v>
+      <c r="M13" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N13" s="20" t="s">
         <v>14</v>
@@ -1533,8 +1533,8 @@
       <c r="L14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="20" t="s">
-        <v>14</v>
+      <c r="M14" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N14" s="20" t="s">
         <v>14</v>
@@ -1588,8 +1588,8 @@
       <c r="L15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>14</v>
+      <c r="M15" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N15" s="20" t="s">
         <v>14</v>
@@ -1643,8 +1643,8 @@
       <c r="L16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>14</v>
+      <c r="M16" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N16" s="20" t="s">
         <v>14</v>
@@ -1698,8 +1698,8 @@
       <c r="L17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>14</v>
+      <c r="M17" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N17" s="20" t="s">
         <v>14</v>
@@ -1753,8 +1753,8 @@
       <c r="L18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="20" t="s">
-        <v>14</v>
+      <c r="M18" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N18" s="20" t="s">
         <v>14</v>
@@ -1808,8 +1808,8 @@
       <c r="L19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="20" t="s">
-        <v>14</v>
+      <c r="M19" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N19" s="20" t="s">
         <v>14</v>
@@ -1863,8 +1863,8 @@
       <c r="L20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="20" t="s">
-        <v>14</v>
+      <c r="M20" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N20" s="20" t="s">
         <v>14</v>
@@ -1918,8 +1918,8 @@
       <c r="L21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="20" t="s">
-        <v>14</v>
+      <c r="M21" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N21" s="20" t="s">
         <v>14</v>
@@ -1973,8 +1973,8 @@
       <c r="L22" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="20" t="s">
-        <v>14</v>
+      <c r="M22" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N22" s="20" t="s">
         <v>14</v>
@@ -2028,8 +2028,8 @@
       <c r="L23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="20" t="s">
-        <v>14</v>
+      <c r="M23" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N23" s="20" t="s">
         <v>14</v>
@@ -2083,8 +2083,8 @@
       <c r="L24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>14</v>
+      <c r="M24" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N24" s="20" t="s">
         <v>14</v>
@@ -2138,8 +2138,8 @@
       <c r="L25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="20" t="s">
-        <v>14</v>
+      <c r="M25" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N25" s="20" t="s">
         <v>14</v>
@@ -2193,8 +2193,8 @@
       <c r="L26" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="20" t="s">
-        <v>14</v>
+      <c r="M26" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N26" s="20" t="s">
         <v>14</v>
@@ -2248,8 +2248,8 @@
       <c r="L27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="20" t="s">
-        <v>14</v>
+      <c r="M27" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N27" s="20" t="s">
         <v>14</v>
@@ -2303,8 +2303,8 @@
       <c r="L28" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="20" t="s">
-        <v>14</v>
+      <c r="M28" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="N28" s="20" t="s">
         <v>14</v>
@@ -2358,8 +2358,8 @@
       <c r="L29" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M29" s="20" t="s">
-        <v>14</v>
+      <c r="M29" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="N29" s="20" t="s">
         <v>14</v>
@@ -2413,8 +2413,8 @@
       <c r="L30" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M30" s="20" t="s">
-        <v>14</v>
+      <c r="M30" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="N30" s="20" t="s">
         <v>14</v>
@@ -2468,8 +2468,8 @@
       <c r="L31" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="20" t="s">
-        <v>14</v>
+      <c r="M31" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N31" s="20" t="s">
         <v>14</v>
@@ -2523,8 +2523,8 @@
       <c r="L32" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="20" t="s">
-        <v>14</v>
+      <c r="M32" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="N32" s="20" t="s">
         <v>14</v>
@@ -2578,8 +2578,8 @@
       <c r="L33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M33" s="20" t="s">
-        <v>14</v>
+      <c r="M33" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="N33" s="24" t="s">
         <v>14</v>
@@ -2633,8 +2633,8 @@
       <c r="L34" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M34" s="20" t="s">
-        <v>14</v>
+      <c r="M34" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N34" s="20" t="s">
         <v>14</v>
@@ -2688,8 +2688,8 @@
       <c r="L35" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="20" t="s">
-        <v>14</v>
+      <c r="M35" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N35" s="20" t="s">
         <v>14</v>
@@ -2725,7 +2725,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="10"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="9"/>
+      <c r="M36" s="11"/>
       <c r="N36" s="9"/>
       <c r="O36" s="10"/>
       <c r="P36" s="12"/>
@@ -2766,8 +2766,8 @@
       <c r="L37" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M37" s="20" t="s">
-        <v>14</v>
+      <c r="M37" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N37" s="20" t="s">
         <v>14</v>
@@ -2821,8 +2821,8 @@
       <c r="L38" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M38" s="20" t="s">
-        <v>14</v>
+      <c r="M38" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="N38" s="20" t="s">
         <v>14</v>
@@ -2876,8 +2876,8 @@
       <c r="L39" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M39" s="20" t="s">
-        <v>14</v>
+      <c r="M39" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N39" s="20" t="s">
         <v>14</v>
@@ -2931,8 +2931,8 @@
       <c r="L40" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M40" s="20" t="s">
-        <v>14</v>
+      <c r="M40" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N40" s="20" t="s">
         <v>14</v>
@@ -2986,8 +2986,8 @@
       <c r="L41" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M41" s="20" t="s">
-        <v>14</v>
+      <c r="M41" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N41" s="20" t="s">
         <v>14</v>
@@ -3041,8 +3041,8 @@
       <c r="L42" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M42" s="20" t="s">
-        <v>14</v>
+      <c r="M42" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N42" s="20" t="s">
         <v>14</v>
@@ -3096,8 +3096,8 @@
       <c r="L43" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M43" s="20" t="s">
-        <v>14</v>
+      <c r="M43" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N43" s="20" t="s">
         <v>14</v>
@@ -3151,8 +3151,8 @@
       <c r="L44" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M44" s="20" t="s">
-        <v>14</v>
+      <c r="M44" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N44" s="20" t="s">
         <v>14</v>
@@ -3206,8 +3206,8 @@
       <c r="L45" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M45" s="20" t="s">
-        <v>14</v>
+      <c r="M45" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N45" s="20" t="s">
         <v>14</v>
@@ -3261,8 +3261,8 @@
       <c r="L46" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M46" s="20" t="s">
-        <v>14</v>
+      <c r="M46" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N46" s="20" t="s">
         <v>14</v>
@@ -3316,8 +3316,8 @@
       <c r="L47" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M47" s="20" t="s">
-        <v>14</v>
+      <c r="M47" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N47" s="20" t="s">
         <v>14</v>
@@ -3371,8 +3371,8 @@
       <c r="L48" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M48" s="20" t="s">
-        <v>14</v>
+      <c r="M48" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N48" s="20" t="s">
         <v>14</v>
@@ -3426,8 +3426,8 @@
       <c r="L49" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M49" s="20" t="s">
-        <v>14</v>
+      <c r="M49" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="N49" s="20" t="s">
         <v>14</v>
@@ -3481,8 +3481,8 @@
       <c r="L50" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M50" s="20" t="s">
-        <v>14</v>
+      <c r="M50" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N50" s="20" t="s">
         <v>14</v>
@@ -3536,8 +3536,8 @@
       <c r="L51" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M51" s="20" t="s">
-        <v>14</v>
+      <c r="M51" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="N51" s="20" t="s">
         <v>14</v>
@@ -3591,8 +3591,8 @@
       <c r="L52" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M52" s="20" t="s">
-        <v>14</v>
+      <c r="M52" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N52" s="20" t="s">
         <v>14</v>
@@ -3646,8 +3646,8 @@
       <c r="L53" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M53" s="20" t="s">
-        <v>14</v>
+      <c r="M53" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="N53" s="20" t="s">
         <v>14</v>
@@ -3701,8 +3701,8 @@
       <c r="L54" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="20" t="s">
-        <v>14</v>
+      <c r="M54" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="N54" s="20" t="s">
         <v>14</v>
@@ -3756,8 +3756,8 @@
       <c r="L55" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="20" t="s">
-        <v>14</v>
+      <c r="M55" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="N55" s="20" t="s">
         <v>14</v>
@@ -3811,8 +3811,8 @@
       <c r="L56" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M56" s="20" t="s">
-        <v>14</v>
+      <c r="M56" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="N56" s="20" t="s">
         <v>14</v>
@@ -3866,8 +3866,8 @@
       <c r="L57" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M57" s="20" t="s">
-        <v>14</v>
+      <c r="M57" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="N57" s="20" t="s">
         <v>14</v>
@@ -3921,8 +3921,8 @@
       <c r="L58" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M58" s="20" t="s">
-        <v>14</v>
+      <c r="M58" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="N58" s="20" t="s">
         <v>14</v>
@@ -3955,7 +3955,7 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B36:C36"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:F35 I7:J35 L7:N35 P7:R35 H7:H10 D37:S58 H12:H35">
+  <conditionalFormatting sqref="D7:F35 I7:J35 P7:R35 H7:H10 H12:H35 L7:N35 D37:S58">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"A"</formula>
     </cfRule>
